--- a/results/mp/logistic/corona/confidence/168/masking-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/masking-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="84">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,51 +40,51 @@
     <t>name</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>die</t>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>sc</t>
   </si>
   <si>
     <t>fears</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
-    <t>lower</t>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>emergency</t>
   </si>
   <si>
     <t>no</t>
   </si>
   <si>
-    <t>cut</t>
-  </si>
-  <si>
     <t>empty</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
@@ -94,42 +94,36 @@
     <t>oil</t>
   </si>
   <si>
-    <t>buying</t>
-  </si>
-  <si>
     <t>co</t>
   </si>
   <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>of</t>
   </si>
   <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>19</t>
+    <t>.</t>
   </si>
   <si>
     <t>the</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
     <t>a</t>
   </si>
   <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
     <t>and</t>
   </si>
   <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
     <t>corona</t>
   </si>
   <si>
@@ -142,133 +136,133 @@
     <t>love</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>support</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>confidence</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>gt</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>care</t>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>protect</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>shop</t>
+    <t>need</t>
   </si>
   <si>
     <t>stay</t>
   </si>
   <si>
+    <t>your</t>
+  </si>
+  <si>
     <t>shopping</t>
   </si>
   <si>
     <t>you</t>
   </si>
   <si>
-    <t>your</t>
-  </si>
-  <si>
     <t>our</t>
   </si>
   <si>
-    <t>all</t>
+    <t>!</t>
+  </si>
+  <si>
+    <t>grocery</t>
   </si>
   <si>
     <t>?</t>
   </si>
   <si>
-    <t>it</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>!</t>
+    <t>for</t>
+  </si>
+  <si>
+    <t>are</t>
   </si>
   <si>
     <t>i</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
-    <t>are</t>
   </si>
   <si>
     <t>in</t>
@@ -629,7 +623,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q57"/>
+  <dimension ref="A1:Q56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -637,10 +631,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -698,13 +692,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8611111111111112</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C3">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -719,16 +713,16 @@
         <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K3">
-        <v>0.9322033898305084</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L3">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M3">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -740,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -748,13 +742,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8235294117647058</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C4">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D4">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -769,7 +763,7 @@
         <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K4">
         <v>0.9130434782608695</v>
@@ -798,13 +792,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8184931506849316</v>
+        <v>0.821917808219178</v>
       </c>
       <c r="C5">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D5">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -816,19 +810,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K5">
-        <v>0.8888888888888888</v>
+        <v>0.9</v>
       </c>
       <c r="L5">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="M5">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -840,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -848,13 +842,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7631578947368421</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -866,19 +860,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K6">
-        <v>0.8833333333333333</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L6">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="M6">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -890,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -898,13 +892,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7567567567567568</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -916,19 +910,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K7">
-        <v>0.8660714285714286</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L7">
-        <v>97</v>
+        <v>33</v>
       </c>
       <c r="M7">
-        <v>97</v>
+        <v>33</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -940,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -948,13 +942,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7058823529411765</v>
+        <v>0.625</v>
       </c>
       <c r="C8">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D8">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -969,16 +963,16 @@
         <v>15</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K8">
-        <v>0.8350785340314136</v>
+        <v>0.8459530026109661</v>
       </c>
       <c r="L8">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="M8">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -987,10 +981,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -998,13 +992,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5873015873015873</v>
+        <v>0.6101694915254238</v>
       </c>
       <c r="C9">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c r="D9">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1016,19 +1010,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K9">
-        <v>0.8301886792452831</v>
+        <v>0.839622641509434</v>
       </c>
       <c r="L9">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M9">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1040,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1048,13 +1042,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5794573643410853</v>
+        <v>0.6027131782945736</v>
       </c>
       <c r="C10">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="D10">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1066,19 +1060,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K10">
-        <v>0.8297872340425532</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L10">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="M10">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1090,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1098,13 +1092,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5423728813559322</v>
+        <v>0.582010582010582</v>
       </c>
       <c r="C11">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="D11">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1116,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K11">
-        <v>0.8181818181818182</v>
+        <v>0.823943661971831</v>
       </c>
       <c r="L11">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="M11">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1140,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1148,13 +1142,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5369127516778524</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="C12">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="D12">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1166,19 +1160,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K12">
-        <v>0.8170731707317073</v>
+        <v>0.8</v>
       </c>
       <c r="L12">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="M12">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1190,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1198,13 +1192,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4642857142857143</v>
+        <v>0.5033557046979866</v>
       </c>
       <c r="C13">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="D13">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1216,19 +1210,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K13">
-        <v>0.813953488372093</v>
+        <v>0.79375</v>
       </c>
       <c r="L13">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="M13">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1240,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1248,13 +1242,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4611111111111111</v>
+        <v>0.4909090909090909</v>
       </c>
       <c r="C14">
-        <v>166</v>
+        <v>27</v>
       </c>
       <c r="D14">
-        <v>166</v>
+        <v>27</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1266,19 +1260,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>194</v>
+        <v>28</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K14">
-        <v>0.8125</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L14">
-        <v>130</v>
+        <v>46</v>
       </c>
       <c r="M14">
-        <v>130</v>
+        <v>46</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1290,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1298,13 +1292,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4545454545454545</v>
+        <v>0.4533333333333333</v>
       </c>
       <c r="C15">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D15">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1316,19 +1310,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K15">
-        <v>0.8055555555555556</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L15">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="M15">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1340,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1348,13 +1342,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4</v>
+        <v>0.4472222222222222</v>
       </c>
       <c r="C16">
-        <v>36</v>
+        <v>161</v>
       </c>
       <c r="D16">
-        <v>36</v>
+        <v>161</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1366,19 +1360,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>54</v>
+        <v>199</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K16">
-        <v>0.796875</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L16">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="M16">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1390,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1398,13 +1392,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="C17">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D17">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1416,19 +1410,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K17">
-        <v>0.7931034482758621</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L17">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="M17">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1440,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1448,13 +1442,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.2857142857142857</v>
+        <v>0.2817460317460317</v>
       </c>
       <c r="C18">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D18">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1466,19 +1460,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K18">
-        <v>0.7816901408450704</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L18">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c r="M18">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1490,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1498,13 +1492,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.2466487935656836</v>
+        <v>0.2278820375335121</v>
       </c>
       <c r="C19">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D19">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1516,19 +1510,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K19">
-        <v>0.7435897435897436</v>
+        <v>0.765625</v>
       </c>
       <c r="L19">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="M19">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1540,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1548,13 +1542,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="C20">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D20">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1566,10 +1560,10 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K20">
         <v>0.7301587301587301</v>
@@ -1598,37 +1592,37 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.08873720136518772</v>
+        <v>0.03694102397926118</v>
       </c>
       <c r="C21">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="D21">
-        <v>26</v>
+        <v>135</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>267</v>
+        <v>2972</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K21">
-        <v>0.675</v>
+        <v>0.725</v>
       </c>
       <c r="L21">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M21">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1640,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1648,37 +1642,37 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.0366051182377713</v>
+        <v>0.03543647363872083</v>
       </c>
       <c r="C22">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="D22">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="E22">
-        <v>0.15</v>
+        <v>0.09</v>
       </c>
       <c r="F22">
-        <v>0.85</v>
+        <v>0.91</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
       </c>
       <c r="H22">
-        <v>2974</v>
+        <v>1116</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K22">
-        <v>0.6666666666666666</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="L22">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M22">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1690,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1698,37 +1692,37 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.02932426689332767</v>
+        <v>0.02695035460992908</v>
       </c>
       <c r="C23">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D23">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="E23">
-        <v>0.27</v>
+        <v>0.33</v>
       </c>
       <c r="F23">
-        <v>0.73</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>2284</v>
+        <v>2058</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K23">
-        <v>0.6617647058823529</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L23">
-        <v>225</v>
+        <v>34</v>
       </c>
       <c r="M23">
-        <v>225</v>
+        <v>34</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1740,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>115</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1748,37 +1742,37 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02903600464576074</v>
+        <v>0.02596849723286505</v>
       </c>
       <c r="C24">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="D24">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="E24">
-        <v>0.19</v>
+        <v>0.33</v>
       </c>
       <c r="F24">
-        <v>0.8100000000000001</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
       </c>
       <c r="H24">
-        <v>836</v>
+        <v>2288</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K24">
-        <v>0.6461538461538462</v>
+        <v>0.6794117647058824</v>
       </c>
       <c r="L24">
-        <v>42</v>
+        <v>231</v>
       </c>
       <c r="M24">
-        <v>42</v>
+        <v>231</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1790,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>23</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1798,37 +1792,37 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.02852203975799482</v>
+        <v>0.01772255041760033</v>
       </c>
       <c r="C25">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="D25">
-        <v>37</v>
+        <v>174</v>
       </c>
       <c r="E25">
-        <v>0.11</v>
+        <v>0.5</v>
       </c>
       <c r="F25">
-        <v>0.89</v>
+        <v>0.5</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>1124</v>
+        <v>4822</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K25">
-        <v>0.6428571428571429</v>
+        <v>0.6401673640167364</v>
       </c>
       <c r="L25">
-        <v>45</v>
+        <v>153</v>
       </c>
       <c r="M25">
-        <v>45</v>
+        <v>153</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1840,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>25</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1848,37 +1842,37 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.02649006622516556</v>
+        <v>0.01636758035890357</v>
       </c>
       <c r="C26">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="D26">
-        <v>85</v>
+        <v>177</v>
       </c>
       <c r="E26">
-        <v>0.34</v>
+        <v>0.53</v>
       </c>
       <c r="F26">
-        <v>0.6599999999999999</v>
+        <v>0.47</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
       </c>
       <c r="H26">
-        <v>2058</v>
+        <v>4988</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K26">
-        <v>0.6305084745762712</v>
+        <v>0.62</v>
       </c>
       <c r="L26">
-        <v>186</v>
+        <v>31</v>
       </c>
       <c r="M26">
-        <v>186</v>
+        <v>31</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1890,7 +1884,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>109</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1898,37 +1892,37 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.01557263946382811</v>
+        <v>0.01574114560559685</v>
       </c>
       <c r="C27">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="D27">
-        <v>171</v>
+        <v>58</v>
       </c>
       <c r="E27">
-        <v>0.54</v>
+        <v>0.38</v>
       </c>
       <c r="F27">
-        <v>0.46</v>
+        <v>0.62</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
       </c>
       <c r="H27">
-        <v>4994</v>
+        <v>2251</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K27">
-        <v>0.6276150627615062</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="L27">
-        <v>150</v>
+        <v>58</v>
       </c>
       <c r="M27">
-        <v>150</v>
+        <v>58</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1940,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>89</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1948,37 +1942,37 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.01552287581699346</v>
+        <v>0.01338028169014084</v>
       </c>
       <c r="C28">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="D28">
-        <v>176</v>
+        <v>125</v>
       </c>
       <c r="E28">
-        <v>0.57</v>
+        <v>0.54</v>
       </c>
       <c r="F28">
-        <v>0.43</v>
+        <v>0.46</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>4820</v>
+        <v>4203</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K28">
-        <v>0.62</v>
+        <v>0.6142857142857143</v>
       </c>
       <c r="L28">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="M28">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1990,7 +1984,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1998,49 +1992,49 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.01535087719298246</v>
+        <v>0.01294363256784969</v>
       </c>
       <c r="C29">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D29">
+        <v>81</v>
+      </c>
+      <c r="E29">
+        <v>0.62</v>
+      </c>
+      <c r="F29">
+        <v>0.38</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>2364</v>
+      </c>
+      <c r="J29" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E29">
-        <v>0.45</v>
-      </c>
-      <c r="F29">
-        <v>0.55</v>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>2245</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="K29">
-        <v>0.5957446808510638</v>
+        <v>0.6020408163265306</v>
       </c>
       <c r="L29">
-        <v>56</v>
+        <v>177</v>
       </c>
       <c r="M29">
-        <v>56</v>
+        <v>178</v>
       </c>
       <c r="N29">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29">
-        <v>38</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2048,37 +2042,37 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.01437451437451437</v>
+        <v>0.01082753286929621</v>
       </c>
       <c r="C30">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D30">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="E30">
-        <v>0.73</v>
+        <v>0.76</v>
       </c>
       <c r="F30">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
       </c>
       <c r="H30">
-        <v>2537</v>
+        <v>2558</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K30">
-        <v>0.5955056179775281</v>
+        <v>0.5617977528089888</v>
       </c>
       <c r="L30">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="M30">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2090,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2098,657 +2092,609 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.01434619002822201</v>
+        <v>0.009064422143088379</v>
       </c>
       <c r="C31">
+        <v>28</v>
+      </c>
+      <c r="D31">
+        <v>140</v>
+      </c>
+      <c r="E31">
+        <v>0.8</v>
+      </c>
+      <c r="F31">
+        <v>0.2</v>
+      </c>
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>3061</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K31">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="L31">
+        <v>25</v>
+      </c>
+      <c r="M31">
+        <v>25</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="J32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K32">
+        <v>0.5538461538461539</v>
+      </c>
+      <c r="L32">
+        <v>36</v>
+      </c>
+      <c r="M32">
+        <v>36</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K33">
+        <v>0.5490196078431373</v>
+      </c>
+      <c r="L33">
+        <v>28</v>
+      </c>
+      <c r="M33">
+        <v>28</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K34">
+        <v>0.4520547945205479</v>
+      </c>
+      <c r="L34">
+        <v>33</v>
+      </c>
+      <c r="M34">
+        <v>33</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K35">
+        <v>0.3846153846153846</v>
+      </c>
+      <c r="L35">
+        <v>30</v>
+      </c>
+      <c r="M35">
+        <v>30</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K36">
+        <v>0.09375</v>
+      </c>
+      <c r="L36">
+        <v>27</v>
+      </c>
+      <c r="M36">
+        <v>28</v>
+      </c>
+      <c r="N36">
+        <v>0.96</v>
+      </c>
+      <c r="O36">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P36" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K37">
+        <v>0.09120521172638436</v>
+      </c>
+      <c r="L37">
+        <v>28</v>
+      </c>
+      <c r="M37">
+        <v>29</v>
+      </c>
+      <c r="N37">
+        <v>0.97</v>
+      </c>
+      <c r="O37">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P37" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K38">
+        <v>0.07326007326007326</v>
+      </c>
+      <c r="L38">
+        <v>40</v>
+      </c>
+      <c r="M38">
+        <v>41</v>
+      </c>
+      <c r="N38">
+        <v>0.98</v>
+      </c>
+      <c r="O38">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P38" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K39">
+        <v>0.06971153846153846</v>
+      </c>
+      <c r="L39">
+        <v>29</v>
+      </c>
+      <c r="M39">
+        <v>29</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K40">
+        <v>0.06873428331936295</v>
+      </c>
+      <c r="L40">
+        <v>82</v>
+      </c>
+      <c r="M40">
+        <v>89</v>
+      </c>
+      <c r="N40">
+        <v>0.92</v>
+      </c>
+      <c r="O40">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K41">
+        <v>0.06067961165048544</v>
+      </c>
+      <c r="L41">
+        <v>25</v>
+      </c>
+      <c r="M41">
+        <v>31</v>
+      </c>
+      <c r="N41">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="O41">
+        <v>0.1899999999999999</v>
+      </c>
+      <c r="P41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K42">
+        <v>0.03869653767820774</v>
+      </c>
+      <c r="L42">
+        <v>38</v>
+      </c>
+      <c r="M42">
+        <v>45</v>
+      </c>
+      <c r="N42">
+        <v>0.84</v>
+      </c>
+      <c r="O42">
+        <v>0.16</v>
+      </c>
+      <c r="P42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K43">
+        <v>0.03529782540182792</v>
+      </c>
+      <c r="L43">
+        <v>112</v>
+      </c>
+      <c r="M43">
+        <v>140</v>
+      </c>
+      <c r="N43">
+        <v>0.8</v>
+      </c>
+      <c r="O43">
+        <v>0.2</v>
+      </c>
+      <c r="P43" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>3061</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K44">
+        <v>0.03444444444444444</v>
+      </c>
+      <c r="L44">
+        <v>31</v>
+      </c>
+      <c r="M44">
+        <v>32</v>
+      </c>
+      <c r="N44">
+        <v>0.97</v>
+      </c>
+      <c r="O44">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P44" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K45">
+        <v>0.03289224952741021</v>
+      </c>
+      <c r="L45">
+        <v>87</v>
+      </c>
+      <c r="M45">
+        <v>115</v>
+      </c>
+      <c r="N45">
+        <v>0.76</v>
+      </c>
+      <c r="O45">
+        <v>0.24</v>
+      </c>
+      <c r="P45" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K46">
+        <v>0.03233935321293574</v>
+      </c>
+      <c r="L46">
+        <v>77</v>
+      </c>
+      <c r="M46">
+        <v>90</v>
+      </c>
+      <c r="N46">
+        <v>0.86</v>
+      </c>
+      <c r="O46">
+        <v>0.14</v>
+      </c>
+      <c r="P46" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K47">
+        <v>0.03036053130929791</v>
+      </c>
+      <c r="L47">
+        <v>48</v>
+      </c>
+      <c r="M47">
         <v>61</v>
       </c>
-      <c r="D31">
-        <v>137</v>
-      </c>
-      <c r="E31">
-        <v>0.55</v>
-      </c>
-      <c r="F31">
-        <v>0.45</v>
-      </c>
-      <c r="G31" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31">
-        <v>4191</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K31">
-        <v>0.4615384615384616</v>
-      </c>
-      <c r="L31">
+      <c r="N47">
+        <v>0.79</v>
+      </c>
+      <c r="O47">
+        <v>0.21</v>
+      </c>
+      <c r="P47" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K48">
+        <v>0.02841357537490134</v>
+      </c>
+      <c r="L48">
         <v>36</v>
       </c>
-      <c r="M31">
-        <v>36</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32">
-        <v>0.01302521008403361</v>
-      </c>
-      <c r="C32">
-        <v>31</v>
-      </c>
-      <c r="D32">
-        <v>96</v>
-      </c>
-      <c r="E32">
-        <v>0.68</v>
-      </c>
-      <c r="F32">
-        <v>0.32</v>
-      </c>
-      <c r="G32" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32">
-        <v>2349</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K32">
-        <v>0.4383561643835616</v>
-      </c>
-      <c r="L32">
-        <v>32</v>
-      </c>
-      <c r="M32">
-        <v>32</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33">
-        <v>0.01035598705501618</v>
-      </c>
-      <c r="C33">
-        <v>32</v>
-      </c>
-      <c r="D33">
-        <v>143</v>
-      </c>
-      <c r="E33">
-        <v>0.78</v>
-      </c>
-      <c r="F33">
-        <v>0.22</v>
-      </c>
-      <c r="G33" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <v>3058</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K33">
-        <v>0.4262295081967213</v>
-      </c>
-      <c r="L33">
-        <v>26</v>
-      </c>
-      <c r="M33">
-        <v>26</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="J34" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K34">
-        <v>0.1684782608695652</v>
-      </c>
-      <c r="L34">
-        <v>31</v>
-      </c>
-      <c r="M34">
-        <v>32</v>
-      </c>
-      <c r="N34">
-        <v>0.97</v>
-      </c>
-      <c r="O34">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="P34" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q34">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="J35" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K35">
-        <v>0.08469055374592833</v>
-      </c>
-      <c r="L35">
-        <v>26</v>
-      </c>
-      <c r="M35">
-        <v>27</v>
-      </c>
-      <c r="N35">
-        <v>0.96</v>
-      </c>
-      <c r="O35">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P35" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q35">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="J36" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K36">
-        <v>0.07932692307692307</v>
-      </c>
-      <c r="L36">
-        <v>33</v>
-      </c>
-      <c r="M36">
-        <v>33</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="J37" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K37">
-        <v>0.07775919732441472</v>
-      </c>
-      <c r="L37">
-        <v>93</v>
-      </c>
-      <c r="M37">
-        <v>97</v>
-      </c>
-      <c r="N37">
-        <v>0.96</v>
-      </c>
-      <c r="O37">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P37" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q37">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="J38" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K38">
-        <v>0.06605504587155964</v>
-      </c>
-      <c r="L38">
-        <v>36</v>
-      </c>
-      <c r="M38">
-        <v>38</v>
-      </c>
-      <c r="N38">
-        <v>0.95</v>
-      </c>
-      <c r="O38">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="P38" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q38">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="J39" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K39">
-        <v>0.06220095693779904</v>
-      </c>
-      <c r="L39">
-        <v>26</v>
-      </c>
-      <c r="M39">
-        <v>26</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="J40" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K40">
-        <v>0.04672897196261682</v>
-      </c>
-      <c r="L40">
-        <v>25</v>
-      </c>
-      <c r="M40">
-        <v>34</v>
-      </c>
-      <c r="N40">
-        <v>0.74</v>
-      </c>
-      <c r="O40">
-        <v>0.26</v>
-      </c>
-      <c r="P40" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q40">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="J41" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K41">
-        <v>0.03755690440060698</v>
-      </c>
-      <c r="L41">
-        <v>99</v>
-      </c>
-      <c r="M41">
-        <v>136</v>
-      </c>
-      <c r="N41">
-        <v>0.73</v>
-      </c>
-      <c r="O41">
-        <v>0.27</v>
-      </c>
-      <c r="P41" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q41">
-        <v>2537</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="J42" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K42">
-        <v>0.03571428571428571</v>
-      </c>
-      <c r="L42">
-        <v>85</v>
-      </c>
-      <c r="M42">
-        <v>99</v>
-      </c>
-      <c r="N42">
-        <v>0.86</v>
-      </c>
-      <c r="O42">
-        <v>0.14</v>
-      </c>
-      <c r="P42" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q42">
-        <v>2295</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="J43" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K43">
-        <v>0.03502682234143263</v>
-      </c>
-      <c r="L43">
-        <v>111</v>
-      </c>
-      <c r="M43">
-        <v>143</v>
-      </c>
-      <c r="N43">
-        <v>0.78</v>
-      </c>
-      <c r="O43">
-        <v>0.22</v>
-      </c>
-      <c r="P43" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q43">
-        <v>3058</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="J44" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K44">
-        <v>0.03140703517587939</v>
-      </c>
-      <c r="L44">
-        <v>25</v>
-      </c>
-      <c r="M44">
-        <v>30</v>
-      </c>
-      <c r="N44">
-        <v>0.83</v>
-      </c>
-      <c r="O44">
-        <v>0.17</v>
-      </c>
-      <c r="P44" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q44">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
-      <c r="J45" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K45">
-        <v>0.03114571746384872</v>
-      </c>
-      <c r="L45">
-        <v>28</v>
-      </c>
-      <c r="M45">
-        <v>30</v>
-      </c>
-      <c r="N45">
-        <v>0.93</v>
-      </c>
-      <c r="O45">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="P45" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q45">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="J46" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K46">
-        <v>0.02968270214943705</v>
-      </c>
-      <c r="L46">
-        <v>29</v>
-      </c>
-      <c r="M46">
-        <v>41</v>
-      </c>
-      <c r="N46">
-        <v>0.71</v>
-      </c>
-      <c r="O46">
-        <v>0.29</v>
-      </c>
-      <c r="P46" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q46">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="J47" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K47">
-        <v>0.02904162633107454</v>
-      </c>
-      <c r="L47">
-        <v>30</v>
-      </c>
-      <c r="M47">
-        <v>37</v>
-      </c>
-      <c r="N47">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="O47">
-        <v>0.1899999999999999</v>
-      </c>
-      <c r="P47" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q47">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
-      <c r="J48" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K48">
-        <v>0.02793650793650794</v>
-      </c>
-      <c r="L48">
-        <v>44</v>
-      </c>
       <c r="M48">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="N48">
-        <v>0.7</v>
+        <v>0.62</v>
       </c>
       <c r="O48">
-        <v>0.3</v>
+        <v>0.38</v>
       </c>
       <c r="P48" t="b">
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>1531</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="K49">
-        <v>0.02692626346313173</v>
+        <v>0.02618816682832202</v>
       </c>
       <c r="L49">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="M49">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="N49">
-        <v>0.68</v>
+        <v>0.75</v>
       </c>
       <c r="O49">
-        <v>0.32</v>
+        <v>0.25</v>
       </c>
       <c r="P49" t="b">
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>2349</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="K50">
-        <v>0.02608695652173913</v>
+        <v>0.02071251035625518</v>
       </c>
       <c r="L50">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="M50">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="N50">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="O50">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="P50" t="b">
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>1232</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K51">
-        <v>0.02032520325203252</v>
+        <v>0.01849665486029122</v>
       </c>
       <c r="L51">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="M51">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N51">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="O51">
-        <v>0.43</v>
+        <v>0.47</v>
       </c>
       <c r="P51" t="b">
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>4820</v>
+        <v>4988</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="K52">
-        <v>0.01827553889409559</v>
+        <v>0.01772255041760033</v>
       </c>
       <c r="L52">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="M52">
-        <v>63</v>
+        <v>174</v>
       </c>
       <c r="N52">
-        <v>0.62</v>
+        <v>0.5</v>
       </c>
       <c r="O52">
-        <v>0.38</v>
+        <v>0.5</v>
       </c>
       <c r="P52" t="b">
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>2095</v>
+        <v>4822</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K53">
-        <v>0.01808887141171844</v>
+        <v>0.015921329899321</v>
       </c>
       <c r="L53">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="M53">
-        <v>171</v>
+        <v>125</v>
       </c>
       <c r="N53">
         <v>0.54</v>
@@ -2760,53 +2706,53 @@
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>4994</v>
+        <v>4203</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="K54">
-        <v>0.01781110850714788</v>
+        <v>0.01356407857811038</v>
       </c>
       <c r="L54">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="M54">
-        <v>137</v>
+        <v>49</v>
       </c>
       <c r="N54">
-        <v>0.55</v>
+        <v>0.59</v>
       </c>
       <c r="O54">
-        <v>0.45</v>
+        <v>0.41</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>4191</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K55">
-        <v>0.01389554384283661</v>
+        <v>0.01342281879194631</v>
       </c>
       <c r="L55">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M55">
         <v>85</v>
       </c>
       <c r="N55">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="O55">
-        <v>0.6599999999999999</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="P55" t="b">
         <v>1</v>
@@ -2817,54 +2763,28 @@
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="K56">
-        <v>0.01275285839929639</v>
+        <v>0.01294219154443486</v>
       </c>
       <c r="L56">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M56">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="N56">
-        <v>0.45</v>
+        <v>0.33</v>
       </c>
       <c r="O56">
-        <v>0.55</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="P56" t="b">
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>2245</v>
-      </c>
-    </row>
-    <row r="57" spans="10:17">
-      <c r="J57" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K57">
-        <v>0.01125541125541126</v>
-      </c>
-      <c r="L57">
-        <v>26</v>
-      </c>
-      <c r="M57">
-        <v>95</v>
-      </c>
-      <c r="N57">
-        <v>0.27</v>
-      </c>
-      <c r="O57">
-        <v>0.73</v>
-      </c>
-      <c r="P57" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q57">
-        <v>2284</v>
+        <v>2288</v>
       </c>
     </row>
   </sheetData>
